--- a/tabular/Asia/Asian_miss.xlsx
+++ b/tabular/Asia/Asian_miss.xlsx
@@ -1,26 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathr\Dropbox\GLUE\Whole clades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/Asia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82A44F5-5B60-420C-8D72-CECE57FE1DE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B656BF-BD1F-4B4F-8331-2F1A781A1C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="48660" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
   <si>
     <t>sequence.sequenceID</t>
   </si>
@@ -392,27 +424,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -783,34 +795,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U3" sqref="A1:AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" customWidth="1"/>
-    <col min="24" max="24" width="23.7109375" customWidth="1"/>
-    <col min="25" max="25" width="26.42578125" customWidth="1"/>
-    <col min="26" max="26" width="22" customWidth="1"/>
-    <col min="27" max="27" width="24.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" customWidth="1"/>
-    <col min="30" max="30" width="19.85546875" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" customWidth="1"/>
-    <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="17" customWidth="1"/>
-    <col min="34" max="34" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" customWidth="1"/>
+    <col min="22" max="22" width="23.83203125" customWidth="1"/>
+    <col min="23" max="23" width="23.6640625" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.5" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" customWidth="1"/>
+    <col min="29" max="29" width="19.83203125" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="32" max="32" width="17" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -856,59 +868,59 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AE1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -957,57 +969,57 @@
       <c r="P2" t="s">
         <v>40</v>
       </c>
+      <c r="Q2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="R2" s="5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="5">
+        <v>57</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="5">
         <v>2010</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="AE2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1056,60 +1068,60 @@
       <c r="P3" t="s">
         <v>41</v>
       </c>
+      <c r="Q3" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="R3" s="9" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="9">
+        <v>57</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="9">
         <v>2010</v>
       </c>
-      <c r="AA3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB3" s="11" t="s">
+      <c r="Z3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="AE3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AG3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1158,57 +1170,57 @@
       <c r="P4" t="s">
         <v>42</v>
       </c>
+      <c r="Q4" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="R4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="11">
+      <c r="U4" s="11">
         <v>2004</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="V4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="11">
+      <c r="W4" s="11">
         <v>2004</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="X4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Y4" s="14">
         <v>2004</v>
       </c>
+      <c r="Z4" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AA4" s="13" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AE4" s="13" t="s">
         <v>60</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1257,66 +1269,67 @@
       <c r="P5" t="s">
         <v>43</v>
       </c>
+      <c r="Q5" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="R5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="17">
+      <c r="U5" s="17">
         <v>2003</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="V5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X5" s="17">
+      <c r="W5" s="17">
         <v>2003</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="X5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Y5" s="18">
         <v>2003</v>
       </c>
+      <c r="Z5" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AA5" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD5" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AE5" s="16" t="s">
         <v>60</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AH5" s="4" t="s">
-        <v>57</v>
+      <c r="AG5" s="4" t="e" cm="1">
+        <f t="array" ref="AG5">unchanged</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S1:S1048576 W1:W1048576 Y1 AA1 AC1:AC1048576 AH1:AH1048576 Y4:Y1048576 AA4:AA1048576 U1:U1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="R1:R1048576 V1:V1048576 X1 Z1 AB1:AB1048576 AG1:AG1048576 X4:X1048576 Z4:Z1048576 T1:T1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y3">
+  <conditionalFormatting sqref="X2:X3">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
@@ -1324,7 +1337,7 @@
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA3">
+  <conditionalFormatting sqref="Z2:Z3">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
